--- a/stories.xlsx
+++ b/stories.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="stories" sheetId="1" state="visible" r:id="rId2"/>
@@ -304,6 +304,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -369,12 +370,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -397,26 +402,26 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="15:15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="62.1428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.11734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.1428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.11734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.0408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.11734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="34.530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.11734693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.719387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.11734693877551"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.8265306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.11734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="89.4897959183674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="91.9387755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0561224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.9387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0561224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.4948979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.9183673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0561224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.7551020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.0561224489796"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.7959183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.0561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="16.7397959183673"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -483,7 +488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -524,96 +529,96 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="0" t="s">
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -634,7 +639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -663,7 +668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -680,78 +685,78 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="0" t="s">
+      <c r="G10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="0" t="s">
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -795,26 +800,26 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/stories.xlsx
+++ b/stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="stories" sheetId="1" state="visible" r:id="rId2"/>
@@ -402,26 +402,26 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="15:15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="89.4897959183674"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="91.9387755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.9387755102041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.4948979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.9183673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.7551020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.7959183673469"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.0561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.6122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="98.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="74.1836734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9744897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.9744897959184"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.3061224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.9744897959184"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.1581632653061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="17.7551020408163"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -777,26 +777,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
     </row>

--- a/stories.xlsx
+++ b/stories.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="stories" sheetId="1" state="visible" r:id="rId2"/>
@@ -402,26 +402,26 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="21:21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.6122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="98.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="98.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9744897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="74.1836734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9744897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.2857142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.9744897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.3061224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.9744897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="53.1581632653061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="13.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="17.7551020408163"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="112.040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="112.040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.9183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="84.5969387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.9183673469388"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="61.9438775510204"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.9183673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.9132653061224"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.9183673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="60.6122448979592"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.9183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.97959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,49 +840,49 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row r="17" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="E18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -920,48 +920,48 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="21" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="G21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="2" t="s">
         <v>5</v>
       </c>
     </row>
